--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.5261</v>
+        <v>16.4578</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.971900000000006</v>
+        <v>6.092200000000006</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.474800000000004</v>
+        <v>5.769800000000004</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.313700000000001</v>
+        <v>6.3266</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.21050000000001</v>
+        <v>18.18380000000001</v>
       </c>
     </row>
     <row r="19">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.102600000000002</v>
+        <v>8.785200000000005</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.677800000000007</v>
+        <v>8.510600000000005</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.3383</v>
+        <v>16.2942</v>
       </c>
     </row>
     <row r="25">
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.297000000000002</v>
+        <v>5.322099999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.07860000000001</v>
+        <v>17.139</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.785700000000004</v>
+        <v>5.772800000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.90859999999998</v>
+        <v>16.95789999999998</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.866600000000004</v>
+        <v>4.986700000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.42369999999999</v>
+        <v>15.6255</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.32209999999999</v>
+        <v>16.40899999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.01289999999999</v>
+        <v>16.0129</v>
       </c>
     </row>
     <row r="40">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.976499999999998</v>
+        <v>9.041399999999998</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44400000000001</v>
+        <v>16.3999</v>
       </c>
     </row>
     <row r="43">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.30419999999999</v>
+        <v>17.3854</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.4346</v>
+        <v>17.34270000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.9737</v>
+        <v>16.8601</v>
       </c>
     </row>
     <row r="53">
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>4.968900000000002</v>
+        <v>4.845800000000001</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.5495</v>
+        <v>16.46230000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.4138</v>
+        <v>16.3845</v>
       </c>
     </row>
     <row r="57">
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.897999999999995</v>
+        <v>4.811599999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.5852</v>
+        <v>16.71760000000002</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.834199999999999</v>
+        <v>4.9025</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>16.11650000000001</v>
+        <v>16.2435</v>
       </c>
     </row>
     <row r="61">
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.856400000000001</v>
+        <v>6.1698</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.365299999999999</v>
+        <v>5.203399999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.48440000000002</v>
+        <v>17.58920000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.95739999999998</v>
+        <v>16.83959999999998</v>
       </c>
     </row>
     <row r="75">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.1927</v>
+        <v>8.986400000000005</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.406399999999999</v>
+        <v>5.639599999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.37900000000002</v>
+        <v>17.40480000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.63699999999999</v>
+        <v>16.90699999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.307600000000001</v>
+        <v>5.2624</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.55810000000002</v>
+        <v>18.65540000000003</v>
       </c>
     </row>
     <row r="93">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.362599999999998</v>
+        <v>5.752000000000002</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.256099999999996</v>
+        <v>5.6144</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
